--- a/Project_documents/Project_expense.xlsx
+++ b/Project_documents/Project_expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final_Year_Project_2\Project_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2187FA0A-A0DA-493D-A3F0-BE53CD5CF21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0E6F8-5294-4086-ACED-7A3CF65D0E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83EDB61F-6E71-4C13-A26E-E41455328EBB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">letterpad color </t>
+  </si>
+  <si>
+    <t>letterpad and abstract aerox</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9951B6F-630E-4B7B-959A-A18AC44A969F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,6 +453,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
